--- a/Documentation/Semaine 2/Journal de travail Renaud Grégory TPI.xlsx
+++ b/Documentation/Semaine 2/Journal de travail Renaud Grégory TPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduvaud-my.sharepoint.com/personal/ph62ldr_eduvaud_ch/Documents/TPI/Semaine 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="633" documentId="13_ncr:1_{0FACF0AD-6438-4E55-9B2C-E5A3B84245AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2EB7C77-E835-4922-9FBC-B61B0EA536C0}"/>
+  <xr:revisionPtr revIDLastSave="752" documentId="13_ncr:1_{0FACF0AD-6438-4E55-9B2C-E5A3B84245AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAFBCC4B-E2D9-40E3-82D5-560A82C611AD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E616EBF9-A1E1-4B05-B307-B39FC77B0801}"/>
+    <workbookView xWindow="1515" yWindow="-15870" windowWidth="25440" windowHeight="15390" xr2:uid="{E616EBF9-A1E1-4B05-B307-B39FC77B0801}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="145">
   <si>
     <t>Date</t>
   </si>
@@ -396,6 +396,87 @@
   <si>
     <t>Préparation des documents pour le 3ème rendu</t>
   </si>
+  <si>
+    <t>Entretien avec le chef de projet pour validation du MCD, MLD et de la maquette</t>
+  </si>
+  <si>
+    <t>Modification du MCD et du MLD après entrevue avec le chef de projet</t>
+  </si>
+  <si>
+    <t>Finalisation du MCD et du MLD</t>
+  </si>
+  <si>
+    <t>Modification de la BD basé sur le MLD</t>
+  </si>
+  <si>
+    <t>Ajout des tables, migration des utilisateurs dans la nouvelle table. Modification de la classe utilisateur pour convenir au nouveaux champs de la table + backup des users.</t>
+  </si>
+  <si>
+    <t>Modification de la page d'affichage des données pour correspondre à la bd et à la maquette.</t>
+  </si>
+  <si>
+    <t>Modification du formulaire pour correspondre au fichier excel de base.</t>
+  </si>
+  <si>
+    <t>Parfait sur PC mais formulaire trop haut pour mobile. Il faudra changer le layout pour que cela soie plus facile sur mobile.</t>
+  </si>
+  <si>
+    <t>Rédaction du journal de travail et vérification de l'avancement sur IceScrum</t>
+  </si>
+  <si>
+    <t>Préparation de l'entretien avec l'expert 2</t>
+  </si>
+  <si>
+    <t>Ajout de la logique d'ajout d'entrée à la db</t>
+  </si>
+  <si>
+    <t>Entrevue avec Monsieur Ithurbide</t>
+  </si>
+  <si>
+    <t>Pour voir si il a une idée du problème d'index de tabulation sur mobile. Il m'as envoié une réponse par mail.</t>
+  </si>
+  <si>
+    <t>https://chatgpt.com/share/68132580-992c-8007-af57-05716a7f78e0</t>
+  </si>
+  <si>
+    <t>Finalisation de la logique d'ajout des évenemnet à la db</t>
+  </si>
+  <si>
+    <t>Rendez-vous avec le 2ème expert</t>
+  </si>
+  <si>
+    <t>Présentation de l'application et de l'avancement, présentation du journal de travail et du rapport. Je suis un peu en retard concernant le rapport (il me manque encore la partie conception qui va être finie entre aujourd'hui et demain) car j'attendais la validation du MCD, MLD et de la maquette par mon chef de projet qui me l'a validée mercredi 30.04.2025.</t>
+  </si>
+  <si>
+    <t>Avancement de la logique d'ajout des évenemnet à la db</t>
+  </si>
+  <si>
+    <t>Fonctionne presque parfaitement</t>
+  </si>
+  <si>
+    <t>J'utilise le nom d'affichage pour récupérer les checkbox qui sont cochée. J'en ai une qui à un \n au millieux et casse toute la suite de la liste. A patcher.</t>
+  </si>
+  <si>
+    <t>Bug fix pour l'ajout à la db</t>
+  </si>
+  <si>
+    <t>Fonctionne parfaitement</t>
+  </si>
+  <si>
+    <t>Gestion de l'affichage dynamique du tableau</t>
+  </si>
+  <si>
+    <t>Finalisation de l'affichage dynamique</t>
+  </si>
+  <si>
+    <t>Documentation du rapport</t>
+  </si>
+  <si>
+    <t>Partie Conception</t>
+  </si>
+  <si>
+    <t>Préparation des document pour rendu aux experts</t>
+  </si>
 </sst>
 </file>
 
@@ -482,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -525,6 +606,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1055,10 +1139,10 @@
                 <c:formatCode>dd:hh:mm</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.93055555555555536</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27777777777777773</c:v>
+                  <c:v>0.34027777777777773</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.10069444444444448</c:v>
@@ -1067,10 +1151,10 @@
                   <c:v>0.1076388888888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14583333333333337</c:v>
+                  <c:v>0.22916666666666669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31944444444444436</c:v>
+                  <c:v>0.36458333333333326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2079,8 +2163,8 @@
   <dimension ref="A1:I1196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3632,254 +3716,450 @@
       <c r="H60" s="9"/>
       <c r="I60" s="15"/>
     </row>
-    <row r="61" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
+    <row r="61" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0.34375</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.375</v>
+      </c>
       <c r="D61" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="9"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="15"/>
     </row>
-    <row r="62" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
+    <row r="62" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.40972222222222221</v>
+      </c>
       <c r="D62" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="9"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="15"/>
     </row>
     <row r="63" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
+      <c r="A63" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0.43055555555555558</v>
+      </c>
       <c r="D63" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="9"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="15"/>
     </row>
-    <row r="64" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
+    <row r="64" spans="1:9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="D64" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
+        <v>4.8611111111111105E-2</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="H64" s="9"/>
       <c r="I64" s="15"/>
     </row>
-    <row r="65" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
+    <row r="65" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B65" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="D65" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="9"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>123</v>
+      </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="15"/>
     </row>
-    <row r="66" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
+    <row r="66" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0.65277777777777779</v>
+      </c>
       <c r="D66" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
+        <v>9.722222222222221E-2</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="H66" s="9"/>
       <c r="I66" s="15"/>
     </row>
-    <row r="67" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
+    <row r="67" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B67" s="4">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0.65972222222222221</v>
+      </c>
       <c r="D67" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="9"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="15"/>
     </row>
     <row r="68" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
+      <c r="A68" s="3">
+        <v>45778</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0.34375</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0.35416666666666669</v>
+      </c>
       <c r="D68" s="4">
         <f t="shared" ref="D68:D131" si="4">C68-B68</f>
-        <v>0</v>
-      </c>
-      <c r="E68" s="5"/>
-      <c r="F68" s="9"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="15"/>
     </row>
     <row r="69" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
+      <c r="A69" s="3">
+        <v>45778</v>
+      </c>
+      <c r="B69" s="4">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0.3923611111111111</v>
+      </c>
       <c r="D69" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E69" s="5"/>
-      <c r="F69" s="9"/>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="15"/>
     </row>
-    <row r="70" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
+    <row r="70" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>45778</v>
+      </c>
+      <c r="B70" s="4">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0.40625</v>
+      </c>
       <c r="D70" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="E70" s="5"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
+      <c r="F70" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="H70" s="9"/>
-      <c r="I70" s="15"/>
-    </row>
-    <row r="71" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
+      <c r="I70" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>45778</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0.43055555555555558</v>
+      </c>
       <c r="D71" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="5"/>
-      <c r="F71" s="9"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>135</v>
+      </c>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
       <c r="I71" s="15"/>
     </row>
-    <row r="72" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
+    <row r="72" spans="1:9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>45778</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C72" s="4">
+        <v>0.47222222222222221</v>
+      </c>
       <c r="D72" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
+        <f>C72-B72</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="H72" s="9"/>
       <c r="I72" s="15"/>
     </row>
-    <row r="73" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
+    <row r="73" spans="1:9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>45778</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0.51388888888888884</v>
+      </c>
       <c r="D73" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
+        <f>C73-B73</f>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>137</v>
+      </c>
       <c r="I73" s="15"/>
     </row>
     <row r="74" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
+      <c r="A74" s="3">
+        <v>45779</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0.34375</v>
+      </c>
+      <c r="C74" s="4">
+        <v>0.3576388888888889</v>
+      </c>
       <c r="D74" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="5"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="H74" s="9"/>
       <c r="I74" s="15"/>
     </row>
     <row r="75" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
+      <c r="A75" s="3">
+        <v>45779</v>
+      </c>
+      <c r="B75" s="4">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="C75" s="4">
+        <v>0.40972222222222221</v>
+      </c>
       <c r="D75" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="5"/>
-      <c r="F75" s="9"/>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="15"/>
     </row>
     <row r="76" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
+      <c r="A76" s="3">
+        <v>45779</v>
+      </c>
+      <c r="B76" s="4">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="C76" s="4">
+        <v>0.42708333333333331</v>
+      </c>
       <c r="D76" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="9"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>141</v>
+      </c>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
       <c r="I76" s="15"/>
     </row>
     <row r="77" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
+      <c r="A77" s="3">
+        <v>45779</v>
+      </c>
+      <c r="B77" s="4">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C77" s="4">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="D77" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="5"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="H77" s="9"/>
       <c r="I77" s="15"/>
     </row>
     <row r="78" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
+      <c r="A78" s="3">
+        <v>45779</v>
+      </c>
+      <c r="B78" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0.4826388888888889</v>
+      </c>
       <c r="D78" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="9"/>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="15"/>
@@ -17129,7 +17409,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:H2 H2:I20 E3:H3 A3:D9 E4 E7:H9 H21 H22:I977 A34:E34 G34:H34 A35:H47 A48:B48 D48:H48 A49:H49 A50:E50 G50:H50 A51:H978">
+  <conditionalFormatting sqref="A2:H2 H2:I20 E3:H3 A3:D9 E4 E7:H9 H21 H22:I69 A34:E34 G34:H34 A35:H47 A48:B48 D48:H48 A49:H49 A50:E50 G50:H50 A51:H978 H71:I977">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
@@ -17146,9 +17426,10 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="I21" r:id="rId1" display="https://support.swisscenter.com/Main/frmTicket.aspx?ticketnumber=15A-2F88DAC1-0105&amp;email=gregory.renaud%40eduvaud.ch&amp;h=2B41A2F823B83D3BA58547442888A23A" xr:uid="{B7A871AB-4844-4775-8DBE-B46455CF9126}"/>
+    <hyperlink ref="I70" r:id="rId2" display="https://che01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fchatgpt.com%2Fshare%2F68132580-992c-8007-af57-05716a7f78e0&amp;data=05%7C02%7Cgregory.renaud%40eduvaud.ch%7C5b3a9806f4494f90f1ee08dd8883ef29%7C906ab90804f94a80ba9c875a36e77bc1%7C0%7C0%7C638816822406386671%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=GW2FrQyQAqZs6T2Rpl4NTYeEYLUcFuPocfidAOcWSM4%3D&amp;reserved=0" xr:uid="{5B456AC8-79EA-4A50-A6FE-EDB25C1DDAD9}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="45" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="45" fitToHeight="0" orientation="landscape" r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -17169,7 +17450,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17193,7 +17474,7 @@
       </c>
       <c r="E1" s="12">
         <f>SUM(B2:B7)</f>
-        <v>1.5347222222222221</v>
+        <v>2.0729166666666661</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -17203,7 +17484,7 @@
       </c>
       <c r="B2" s="11">
         <f>SUMIF(Journal!E2:E978, Résumé!A2,Journal!D2:D978)</f>
-        <v>0.58333333333333337</v>
+        <v>0.93055555555555536</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -17213,7 +17494,7 @@
       </c>
       <c r="B3" s="11">
         <f>SUMIF(Journal!E2:E980, Résumé!A3,Journal!D2:D980)</f>
-        <v>0.27777777777777773</v>
+        <v>0.34027777777777773</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -17243,7 +17524,7 @@
       </c>
       <c r="B6" s="11">
         <f>SUMIF(Journal!E2:E983, Résumé!A6,Journal!D2:D983)</f>
-        <v>0.14583333333333337</v>
+        <v>0.22916666666666669</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -17253,7 +17534,7 @@
       </c>
       <c r="B7" s="11">
         <f>SUMIF(Journal!E2:E984, Résumé!A7,Journal!D2:D984)</f>
-        <v>0.31944444444444436</v>
+        <v>0.36458333333333326</v>
       </c>
     </row>
   </sheetData>
@@ -17268,7 +17549,7 @@
   <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/Semaine 2/Journal de travail Renaud Grégory TPI.xlsx
+++ b/Documentation/Semaine 2/Journal de travail Renaud Grégory TPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduvaud-my.sharepoint.com/personal/ph62ldr_eduvaud_ch/Documents/TPI/Semaine 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="752" documentId="13_ncr:1_{0FACF0AD-6438-4E55-9B2C-E5A3B84245AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAFBCC4B-E2D9-40E3-82D5-560A82C611AD}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E93AF827-F335-4273-9BF2-1B7E35411D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7079C538-956F-4B36-B6F8-058FC1A7098D}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="-15870" windowWidth="25440" windowHeight="15390" xr2:uid="{E616EBF9-A1E1-4B05-B307-B39FC77B0801}"/>
   </bookViews>
@@ -1846,10 +1846,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{276EA92B-46E1-49DE-A871-36F19432AE6D}" name="Catégorie" displayName="Catégorie" ref="A1:A42" totalsRowShown="0" dataDxfId="4">
   <autoFilter ref="A1:A42" xr:uid="{276EA92B-46E1-49DE-A871-36F19432AE6D}"/>
@@ -2163,8 +2159,8 @@
   <dimension ref="A1:I1196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4165,9 +4161,9 @@
       <c r="I78" s="15"/>
     </row>
     <row r="79" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
       <c r="D79" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4179,9 +4175,9 @@
       <c r="I79" s="15"/>
     </row>
     <row r="80" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
       <c r="D80" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4193,9 +4189,9 @@
       <c r="I80" s="15"/>
     </row>
     <row r="81" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
       <c r="D81" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4207,9 +4203,9 @@
       <c r="I81" s="15"/>
     </row>
     <row r="82" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
+      <c r="A82" s="3"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
       <c r="D82" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4221,9 +4217,9 @@
       <c r="I82" s="15"/>
     </row>
     <row r="83" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
       <c r="D83" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4235,9 +4231,9 @@
       <c r="I83" s="15"/>
     </row>
     <row r="84" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
       <c r="D84" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4249,9 +4245,9 @@
       <c r="I84" s="15"/>
     </row>
     <row r="85" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
+      <c r="A85" s="3"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
       <c r="D85" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4263,9 +4259,9 @@
       <c r="I85" s="15"/>
     </row>
     <row r="86" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
+      <c r="A86" s="3"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
       <c r="D86" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4277,9 +4273,9 @@
       <c r="I86" s="15"/>
     </row>
     <row r="87" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
+      <c r="A87" s="3"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
       <c r="D87" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4291,9 +4287,9 @@
       <c r="I87" s="15"/>
     </row>
     <row r="88" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
+      <c r="A88" s="3"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
       <c r="D88" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4305,9 +4301,9 @@
       <c r="I88" s="15"/>
     </row>
     <row r="89" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
+      <c r="A89" s="3"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
       <c r="D89" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4319,9 +4315,9 @@
       <c r="I89" s="15"/>
     </row>
     <row r="90" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
+      <c r="A90" s="3"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
       <c r="D90" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4333,9 +4329,9 @@
       <c r="I90" s="15"/>
     </row>
     <row r="91" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
+      <c r="A91" s="3"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
       <c r="D91" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4347,9 +4343,9 @@
       <c r="I91" s="15"/>
     </row>
     <row r="92" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
+      <c r="A92" s="3"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
       <c r="D92" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4361,9 +4357,9 @@
       <c r="I92" s="15"/>
     </row>
     <row r="93" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
       <c r="D93" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
